--- a/data/trans_bre/P20B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P20B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,46%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,17; 18,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,22; 12,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,31; 25,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,61; 4,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,02; 106,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,97; 60,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,28; 122,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,48; 16,0</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,36</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,28</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,75%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,76; 3,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,6; 1,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,15; -4,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,42; 2,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,32; 27,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,64; 7,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,93; -14,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,44; 9,07</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,02%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-49,18; -0,86</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-44,06; 23,55</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-31,94; 1,21</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-32,34; 4,51</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-91,67; 18,03</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-86,18; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,73; 31,19</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,99%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 2,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,89; 3,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,67; -0,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,04; -2,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,19; 14,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,44; 16,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,47; -0,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,57; -8,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,03</t>
+          <t>-9,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-29,46%</t>
+          <t>-28,45%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 4,26</t>
+          <t>-23,64; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-58,48; 16,0</t>
+          <t>-57,43; 20,02</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-29,75%</t>
+          <t>-29,36%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 2,09</t>
+          <t>-21,92; 2,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,44; 9,07</t>
+          <t>-53,53; 8,65</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,22</t>
+          <t>-11,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-42,02%</t>
+          <t>-40,02%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 4,51</t>
+          <t>-31,73; 5,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-75,73; 31,19</t>
+          <t>-74,43; 33,63</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,66</t>
+          <t>-10,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,99%</t>
+          <t>-31,03%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -2,44</t>
+          <t>-18,99; -2,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,57; -8,05</t>
+          <t>-49,24; -7,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 18,78</t>
+          <t>-7,93; 19,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 12,39</t>
+          <t>-11,82; 12,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 25,01</t>
+          <t>-8,56; 22,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 4,79</t>
+          <t>-23,84; 4,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 106,64</t>
+          <t>-23,3; 110,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,97; 60,04</t>
+          <t>-35,01; 58,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,28; 122,25</t>
+          <t>-23,67; 107,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 20,02</t>
+          <t>-56,54; 16,09</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 3,37</t>
+          <t>-23,36; 3,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 1,72</t>
+          <t>-21,59; 0,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,15; -4,92</t>
+          <t>-32,01; -4,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 2,03</t>
+          <t>-22,56; 2,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,32; 27,89</t>
+          <t>-72,87; 29,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,64; 7,86</t>
+          <t>-55,99; 4,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,93; -14,55</t>
+          <t>-63,19; -11,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,53; 8,65</t>
+          <t>-53,99; 7,94</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -0,86</t>
+          <t>-47,31; 0,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 23,55</t>
+          <t>-39,6; 23,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 1,21</t>
+          <t>-34,61; 0,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,73; 5,63</t>
+          <t>-30,42; 6,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-91,67; 18,03</t>
+          <t>-92,17; 17,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-86,18; —</t>
+          <t>-82,75; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-74,43; 33,63</t>
+          <t>-73,27; 37,5</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 2,85</t>
+          <t>-14,98; 1,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 3,85</t>
+          <t>-13,12; 3,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,67; -0,44</t>
+          <t>-19,16; 0,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -2,22</t>
+          <t>-18,31; -0,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 14,05</t>
+          <t>-47,18; 10,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 16,15</t>
+          <t>-38,72; 13,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,47; -0,52</t>
+          <t>-47,92; 0,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,24; -7,42</t>
+          <t>-48,39; -0,74</t>
         </is>
       </c>
     </row>
